--- a/Experiment/Results_xls/Sonar/DES_MHA_Sonar_results.xlsx
+++ b/Experiment/Results_xls/Sonar/DES_MHA_Sonar_results.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71.15384615384616</v>
+        <v>73.07692307692307</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -462,13 +462,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0)]</t>
+          <t>[1, 1, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 1, 1, 0, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>82.69230769230769</v>
+        <v>80.76923076923077</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -478,13 +478,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0)]</t>
+          <t>[0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 1, 0, 0, 1, 1, 1, 0, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71.15384615384616</v>
+        <v>73.07692307692307</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1)]</t>
+          <t>[1, 0, 0, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 0, 1, 1, 1, 0, 0, 1, 1, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 1, 0, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -510,13 +510,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0)]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 1, 1, 1, 0, 0, 1, 1, 0, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80.76923076923077</v>
+        <v>78.84615384615384</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -526,13 +526,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0)]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 1, 1, 0, 1, 1, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 1, 1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>75</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1)]</t>
+          <t>[0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86.53846153846155</v>
+        <v>82.69230769230769</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -558,13 +558,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0)]</t>
+          <t>[1, 1, 0, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 0, 1, 1, 1, 0, 0, 1, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 1, 1, 0, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78.84615384615384</v>
+        <v>80.76923076923077</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0)]</t>
+          <t>[1, 1, 0, 1, 1, 1, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 0, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
@@ -590,13 +590,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0)]</t>
+          <t>[1, 0, 1, 0, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67.30769230769231</v>
+        <v>63.46153846153846</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -606,13 +606,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0)]</t>
+          <t>[1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>84.61538461538461</v>
+        <v>78.84615384615384</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -622,13 +622,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0)]</t>
+          <t>[1, 1, 1, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 0, 1, 1, 1, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>88.46153846153845</v>
+        <v>86.53846153846155</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -638,13 +638,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1)]</t>
+          <t>[0, 1, 0, 1, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>76.92307692307693</v>
+        <v>71.15384615384616</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -654,13 +654,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0)]</t>
+          <t>[1, 1, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>80.76923076923077</v>
+        <v>78.84615384615384</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0)]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 0]</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0)]</t>
+          <t>[0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 1, 1, 0, 1, 1, 1, 0, 1, 1, 1, 0, 1, 1, 0, 1, 0, 0, 1, 1, 1, 0, 0, 1, 1, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
     </row>
@@ -702,13 +702,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0)]</t>
+          <t>[0, 1, 0, 1, 1, 0, 1, 1, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 0, 1, 1, 0, 1, 0, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>75</v>
+        <v>73.07692307692307</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -718,13 +718,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1)]</t>
+          <t>[1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 1, 1, 0, 1, 1, 1, 1, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>71.15384615384616</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -734,13 +734,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0)]</t>
+          <t>[0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>78.84615384615384</v>
+        <v>82.69230769230769</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -750,13 +750,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0)]</t>
+          <t>[1, 0, 1, 1, 0, 1, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>82.69230769230769</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(1), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(1)]</t>
+          <t>[1, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1]</t>
         </is>
       </c>
     </row>
